--- a/BalanceSheet/PINS_bal.xlsx
+++ b/BalanceSheet/PINS_bal.xlsx
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-717000.0</v>
+        <v>49000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>8032000.0</v>
+        <v>49000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-2091000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>7167000.0</v>
+        <v>44000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2613000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>34334000.0</v>
@@ -2236,7 +2236,7 @@
         <v>-1583000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-1496000000.0</v>
+        <v>-1493345000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>-1564601000.0</v>
